--- a/outputs-r202/f__Acidaminococcaceae.xlsx
+++ b/outputs-r202/f__Acidaminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -805,6 +850,11 @@
         <v>0.9999959939479427</v>
       </c>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>g__Acidaminococcus</t>
         </is>

--- a/outputs-r202/f__Acidaminococcaceae.xlsx
+++ b/outputs-r202/f__Acidaminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.621980647013194e-05</v>
+        <v>8.286444461732716e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.221746217733908e-14</v>
+        <v>2.220576035418893e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.221746217733908e-14</v>
+        <v>2.220576035418893e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.221746217733908e-14</v>
+        <v>2.220576035418893e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.221746217733908e-14</v>
+        <v>2.220576035418893e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.221746217733908e-14</v>
+        <v>2.220576035418893e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999137801934188</v>
+        <v>0.9999917135554273</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999137801934188</v>
+        <v>0.9999917135554273</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8462879816432226</v>
+        <v>0.9925121754177775</v>
       </c>
       <c r="C3" t="n">
-        <v>2.230430479870138e-14</v>
+        <v>2.21991299182774e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04820776364971554</v>
+        <v>2.21991299182774e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.230430479870138e-14</v>
+        <v>2.21991299182774e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.230430479870138e-14</v>
+        <v>2.21991299182774e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.230430479870138e-14</v>
+        <v>2.21991299182774e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1055042547069726</v>
+        <v>0.007487824582111542</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8462879816432226</v>
+        <v>0.9925121754177775</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -580,28 +580,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003551076142569139</v>
+        <v>0.0003246515099937182</v>
       </c>
       <c r="C4" t="n">
-        <v>2.222734824103846e-14</v>
+        <v>2.220952138722145e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.222734824103846e-14</v>
+        <v>2.220952138722145e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.222734824103846e-14</v>
+        <v>2.220952138722145e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.222734824103846e-14</v>
+        <v>2.220952138722145e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.222734824103846e-14</v>
+        <v>2.220952138722145e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9996448923856319</v>
+        <v>0.9996753484898953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9996448923856319</v>
+        <v>0.9996753484898953</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -621,28 +621,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.792406308166794e-05</v>
+        <v>8.185860529438309e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>2.221572351587506e-14</v>
+        <v>2.22063639923214e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.221572351587506e-14</v>
+        <v>2.22063639923214e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.221572351587506e-14</v>
+        <v>2.22063639923214e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.221572351587506e-14</v>
+        <v>2.22063639923214e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.221572351587506e-14</v>
+        <v>2.22063639923214e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999320759368072</v>
+        <v>0.9999918141393594</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999320759368072</v>
+        <v>0.9999918141393594</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002240532422417221</v>
+        <v>9.579969499954384e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.224088214170011e-14</v>
+        <v>2.220603490243466e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.224088214170011e-14</v>
+        <v>2.220603490243466e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.224088214170011e-14</v>
+        <v>2.220603490243466e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.224088214170011e-14</v>
+        <v>2.220603490243466e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.224088214170011e-14</v>
+        <v>2.220603490243466e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999775946757647</v>
+        <v>0.999990420030389</v>
       </c>
       <c r="I6" t="n">
-        <v>0.999775946757647</v>
+        <v>0.999990420030389</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -703,28 +703,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005039663925225695</v>
+        <v>3.916032928334632e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>5.751937573695024e-14</v>
+        <v>2.222295033597013e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.751937573694998e-14</v>
+        <v>2.222295033597013e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>5.75193757369506e-14</v>
+        <v>2.222295033597013e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>5.751937573695065e-14</v>
+        <v>2.222295033597013e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>5.751937573695023e-14</v>
+        <v>2.222295033597013e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9994960336071899</v>
+        <v>0.9999608396706056</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9994960336071899</v>
+        <v>0.9999608396706056</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -740,121 +740,80 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG720.fasta</t>
+          <t>RUG848.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999964515204528</v>
+        <v>1.017256453223477e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220490452070912e-14</v>
+        <v>2.22066425749001e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220490452070912e-14</v>
+        <v>2.22066425749001e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220490452070912e-14</v>
+        <v>2.22066425749001e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220490452070912e-14</v>
+        <v>2.22066425749001e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220490452070912e-14</v>
+        <v>2.22066425749001e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>3.548479436089348e-06</v>
+        <v>0.9999898274353568</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9999964515204528</v>
+        <v>0.9999898274353568</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG848.fasta</t>
+          <t>hRUG887.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000143834595167396</v>
+        <v>0.9999836049926639</v>
       </c>
       <c r="C9" t="n">
-        <v>2.224358840120649e-14</v>
+        <v>2.220442273703439e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.224358840120649e-14</v>
+        <v>2.220442273703439e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.224358840120649e-14</v>
+        <v>2.220442273703439e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.224358840120649e-14</v>
+        <v>2.220442273703439e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.224358840120649e-14</v>
+        <v>2.220442273703439e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9998561654047214</v>
+        <v>1.639500722499403e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9998561654047214</v>
+        <v>0.9999836049926639</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>g__Succiniclasticum</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>hRUG887.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9999959939479427</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.220445078838189e-14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.220445078838189e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.220445078838189e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.220445078838189e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.220445078838189e-14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.006051946221297e-06</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9999959939479427</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__Acidaminococcus</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>g__Acidaminococcus</t>
         </is>
